--- a/Docs/Résultats/Résultats_04_11_15.xlsx
+++ b/Docs/Résultats/Résultats_04_11_15.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Titre</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Non prise en compte du dernier onset attendu dans l'évaluation</t>
+  </si>
+  <si>
+    <t>Conséquence =&gt; l'onset est en retard par rapport à la réalité =&gt; la note est mal analysée en ton</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,19 +1030,19 @@
         <v>0.95</v>
       </c>
       <c r="H18" s="4">
-        <v>0.57140000000000002</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="I18" s="4">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="J18" s="21">
         <v>0.35709999999999997</v>
       </c>
-      <c r="J18" s="21">
-        <v>0.34279999999999999</v>
-      </c>
       <c r="K18" s="26">
-        <v>0.57140000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="L18" s="22">
-        <v>0.78569999999999995</v>
+        <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="14">
-        <v>0.96</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
@@ -1191,10 +1194,10 @@
         <v>0.89130434782608703</v>
       </c>
       <c r="H22" s="6">
-        <v>0.84199999999999997</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="I22" s="6">
-        <v>0.71052000000000004</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J22" s="14">
         <v>0.5</v>
@@ -1203,7 +1206,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="L22" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.89129999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,19 +1235,19 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="H23" s="11">
-        <v>0.73839999999999995</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="I23" s="10">
-        <v>0.61529999999999996</v>
+        <v>0.57740000000000002</v>
       </c>
       <c r="J23" s="20">
         <v>0.59670000000000001</v>
       </c>
       <c r="K23" s="11">
-        <v>7.6899999999999996E-2</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="L23" s="12">
-        <v>0.76919999999999999</v>
+        <v>0.76049999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,23 +1268,23 @@
       </c>
       <c r="H24" s="19">
         <f t="shared" ref="H24" si="11">AVERAGE(H18:H23)</f>
-        <v>0.69196666666666662</v>
+        <v>0.69486666666666663</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ref="I24" si="12">AVERAGE(I18:I23)</f>
-        <v>0.61381999999999992</v>
+        <v>0.61613333333333331</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" ref="J24" si="13">AVERAGE(J18:J23)</f>
-        <v>0.39991666666666664</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="K24" s="19">
         <f t="shared" ref="K24" si="14">AVERAGE(K18:K23)</f>
-        <v>0.4545333333333334</v>
+        <v>0.43931666666666663</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" ref="L24" si="15">AVERAGE(L18:L23)</f>
-        <v>0.85564999999999991</v>
+        <v>0.93269999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1332,22 +1335,25 @@
         <v>8.8888888888888893</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>

--- a/Docs/Résultats/Résultats_04_11_15.xlsx
+++ b/Docs/Résultats/Résultats_04_11_15.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Titre</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Conséquence =&gt; l'onset est en retard par rapport à la réalité =&gt; la note est mal analysée en ton</t>
+  </si>
+  <si>
+    <t>Nombre de notes</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,37 +621,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="M29" sqref="M28:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="29" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
       <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
         <v>0</v>
@@ -653,32 +662,36 @@
       <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -691,33 +704,40 @@
       <c r="D3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="E3" s="3">
+        <v>21</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>0.19047619047619002</v>
       </c>
-      <c r="G3" s="22">
-        <f>100%-(E3)-(F3)</f>
+      <c r="H3" s="22">
+        <f>100%-(F3)-(G3)</f>
         <v>0.80952380952380998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
+        <f>H3*E3</f>
+        <v>17.000000000000011</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>0.35709999999999997</v>
       </c>
-      <c r="J3" s="21">
+      <c r="L3" s="21">
         <v>0.34279999999999999</v>
       </c>
-      <c r="K3" s="26">
+      <c r="M3" s="26">
         <v>0.57140000000000002</v>
       </c>
-      <c r="L3" s="22">
+      <c r="N3" s="22">
         <v>0.78569999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -730,33 +750,40 @@
       <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G8" si="0">100%-(E4)-(F4)</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H8" si="0">100%-(F4)-(G4)</f>
         <v>0.9375</v>
       </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I8" si="1">H4*E4</f>
+        <v>15</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -769,33 +796,40 @@
       <c r="D5" s="3">
         <v>16</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>0.97368421052631582</v>
       </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
         <v>0.96</v>
       </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -808,33 +842,40 @@
       <c r="D6" s="3">
         <v>26</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="27">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -847,33 +888,40 @@
       <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="27">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.12765957446808499</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="G7" s="5">
-        <f>100%-(E7)-(F7)</f>
+      <c r="H7" s="5">
+        <f>100%-(F7)-(G7)</f>
         <v>0.82978723404255339</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>39.000000000000007</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>0.71052000000000004</v>
       </c>
-      <c r="J7" s="14">
+      <c r="L7" s="14">
         <v>0.5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -886,166 +934,184 @@
       <c r="D8" s="9">
         <v>35</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
+        <v>91</v>
+      </c>
+      <c r="F8" s="15">
         <v>4.3956043956044001E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>9.8901098901098911E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J8" s="11">
         <v>0.73839999999999995</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <v>0.61529999999999996</v>
       </c>
-      <c r="J8" s="20">
+      <c r="L8" s="20">
         <v>0.59670000000000001</v>
       </c>
-      <c r="K8" s="11">
+      <c r="M8" s="11">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="L8" s="12">
+      <c r="N8" s="12">
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19">
-        <f>AVERAGE(E3:E8)</f>
+      <c r="F9" s="19">
+        <f>AVERAGE(F3:F8)</f>
         <v>2.8602603070688164E-2</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" ref="F9:L9" si="1">AVERAGE(F3:F8)</f>
+      <c r="G9" s="19">
+        <f t="shared" ref="G9:N9" si="2">AVERAGE(G3:G8)</f>
         <v>7.4291045056722474E-2</v>
       </c>
-      <c r="G9" s="19">
-        <f t="shared" si="1"/>
-        <v>0.89710635187258925</v>
-      </c>
       <c r="H9" s="19">
-        <f t="shared" si="1"/>
+        <f>SUM(I3:I8)/SUM(E3:E8)</f>
+        <v>0.8893280632411068</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
+        <f t="shared" si="2"/>
         <v>0.69196666666666662</v>
       </c>
-      <c r="I9" s="19">
-        <f t="shared" si="1"/>
+      <c r="K9" s="19">
+        <f t="shared" si="2"/>
         <v>0.61381999999999992</v>
       </c>
-      <c r="J9" s="19">
-        <f t="shared" si="1"/>
+      <c r="L9" s="19">
+        <f t="shared" si="2"/>
         <v>0.39991666666666664</v>
       </c>
-      <c r="K9" s="19">
-        <f t="shared" si="1"/>
+      <c r="M9" s="19">
+        <f t="shared" si="2"/>
         <v>0.4545333333333334</v>
       </c>
-      <c r="L9" s="19">
-        <f t="shared" si="1"/>
+      <c r="N9" s="19">
+        <f t="shared" si="2"/>
         <v>0.85564999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="G17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="L17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>1</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="33">
         <v>8</v>
       </c>
-      <c r="E18" s="21">
-        <f>E27/100</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <f>F27/100</f>
+      <c r="E18" s="34">
+        <v>21</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
         <v>0.05</v>
       </c>
-      <c r="G18" s="22">
-        <f>100%-(E18)-(F18)</f>
+      <c r="H18" s="22">
+        <f>100%-(F18)-(G18)</f>
         <v>0.95</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
+        <f>H18*E18</f>
+        <v>19.95</v>
+      </c>
+      <c r="J18" s="4">
         <v>0.55549999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>0.44440000000000002</v>
       </c>
-      <c r="J18" s="21">
+      <c r="L18" s="21">
         <v>0.35709999999999997</v>
       </c>
-      <c r="K18" s="26">
+      <c r="M18" s="26">
         <v>0.44440000000000002</v>
       </c>
-      <c r="L18" s="22">
+      <c r="N18" s="22">
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1058,35 +1124,40 @@
       <c r="D19" s="3">
         <v>8</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19:F19" si="2">E28/100</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" ref="G19:G23" si="3">100%-(E19)-(F19)</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
+      <c r="E19" s="35">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f>100%-(F19)-(G19)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" ref="I19:I23" si="3">H19*E19</f>
+        <v>16</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1099,35 +1170,40 @@
       <c r="D20" s="3">
         <v>16</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" ref="E20:F20" si="4">E29/100</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="35">
+        <v>38</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f>100%-(F20)-(G20)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14">
+        <v>38</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14">
         <v>0.96599999999999997</v>
       </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1140,35 +1216,40 @@
       <c r="D21" s="3">
         <v>26</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" ref="E21:F21" si="5">E30/100</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="E21" s="36">
+        <v>40</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f>100%-(F21)-(G21)</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
+        <v>40</v>
+      </c>
+      <c r="J21" s="6">
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1181,35 +1262,40 @@
       <c r="D22" s="3">
         <v>30</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" ref="E22:F22" si="6">E31/100</f>
+      <c r="E22" s="36">
+        <v>47</v>
+      </c>
+      <c r="F22" s="13">
         <v>8.6956521739130391E-2</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="6"/>
+      <c r="G22" s="4">
         <v>2.1739130434782598E-2</v>
       </c>
-      <c r="G22" s="5">
-        <f>100%-(E22)-(F22)</f>
+      <c r="H22" s="5">
+        <f>100%-(F22)-(G22)</f>
         <v>0.89130434782608703</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>41.891304347826093</v>
+      </c>
+      <c r="J22" s="6">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I22" s="6">
+      <c r="K22" s="6">
         <v>0.67500000000000004</v>
       </c>
-      <c r="J22" s="14">
+      <c r="L22" s="14">
         <v>0.5</v>
       </c>
-      <c r="K22" s="6">
+      <c r="M22" s="6">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="L22" s="7">
+      <c r="N22" s="7">
         <v>0.89129999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -1222,148 +1308,106 @@
       <c r="D23" s="9">
         <v>35</v>
       </c>
-      <c r="E23" s="15">
-        <f t="shared" ref="E23:F23" si="7">E32/100</f>
+      <c r="E23" s="37">
+        <v>91</v>
+      </c>
+      <c r="F23" s="15">
         <v>2.2222222222222202E-2</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="7"/>
+      <c r="G23" s="10">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="G23" s="12">
-        <f t="shared" ref="G23:G24" si="8">100%-(E23)-(F23)</f>
+      <c r="H23" s="12">
+        <f>100%-(F23)-(G23)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>80.888888888888886</v>
+      </c>
+      <c r="J23" s="11">
         <v>0.78869999999999996</v>
       </c>
-      <c r="I23" s="10">
+      <c r="K23" s="10">
         <v>0.57740000000000002</v>
       </c>
-      <c r="J23" s="20">
+      <c r="L23" s="20">
         <v>0.59670000000000001</v>
       </c>
-      <c r="K23" s="11">
+      <c r="M23" s="11">
         <v>0.11260000000000001</v>
       </c>
-      <c r="L23" s="12">
+      <c r="N23" s="12">
         <v>0.76049999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19">
-        <f>AVERAGE(E18:E23)</f>
+      <c r="F24" s="19">
+        <f>AVERAGE(F18:F23)</f>
         <v>1.8196457326892099E-2</v>
       </c>
-      <c r="F24" s="19">
-        <f t="shared" ref="F24" si="9">AVERAGE(F18:F23)</f>
+      <c r="G24" s="19">
+        <f>AVERAGE(G18:G23)</f>
         <v>2.6771336553945247E-2</v>
       </c>
-      <c r="G24" s="19">
-        <f t="shared" ref="G24" si="10">AVERAGE(G18:G23)</f>
-        <v>0.95503220611916273</v>
-      </c>
       <c r="H24" s="19">
-        <f t="shared" ref="H24" si="11">AVERAGE(H18:H23)</f>
+        <f>SUM(I18:I23)/SUM(E18:E23)</f>
+        <v>0.93569246338622525</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19">
+        <f t="shared" ref="J24" si="4">AVERAGE(J18:J23)</f>
         <v>0.69486666666666663</v>
       </c>
-      <c r="I24" s="19">
-        <f t="shared" ref="I24" si="12">AVERAGE(I18:I23)</f>
+      <c r="K24" s="19">
+        <f t="shared" ref="K24" si="5">AVERAGE(K18:K23)</f>
         <v>0.61613333333333331</v>
       </c>
-      <c r="J24" s="19">
-        <f t="shared" ref="J24" si="13">AVERAGE(J18:J23)</f>
+      <c r="L24" s="19">
+        <f t="shared" ref="L24" si="6">AVERAGE(L18:L23)</f>
         <v>0.40329999999999999</v>
       </c>
-      <c r="K24" s="19">
-        <f t="shared" ref="K24" si="14">AVERAGE(K18:K23)</f>
+      <c r="M24" s="19">
+        <f t="shared" ref="M24" si="7">AVERAGE(M18:M23)</f>
         <v>0.43931666666666663</v>
       </c>
-      <c r="L24" s="19">
-        <f t="shared" ref="L24" si="15">AVERAGE(L18:L23)</f>
+      <c r="N24" s="19">
+        <f t="shared" ref="N24" si="8">AVERAGE(N18:N23)</f>
         <v>0.93269999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>8.6956521739130395</v>
-      </c>
-      <c r="F31">
-        <v>2.1739130434782599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>2.2222222222222201</v>
-      </c>
-      <c r="F32">
-        <v>8.8888888888888893</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="28" t="s">
+    <row r="27" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="28" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F9 J3:J9">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="F3:G9 L3:L9">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.25"/>
@@ -1374,8 +1418,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9 L3:L8">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H3:H9 N3:N8">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="0.65"/>
@@ -1386,8 +1430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I9">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="J3:K9">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -1398,8 +1442,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J24 E18:F24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F18:G24 L18:L24">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.25"/>
@@ -1410,8 +1454,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G24 L18:L23">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="N18:N23 I24 H18:H23">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="0.65"/>
@@ -1422,11 +1466,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J18:K24">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.65"/>
         <cfvo type="num" val="1"/>
         <color rgb="FFFF0000"/>
         <color theme="0"/>
